--- a/analysis & data/pilot/github-sameorgs/repos/repos.xlsx
+++ b/analysis & data/pilot/github-sameorgs/repos/repos.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopherdishop/Desktop/dissertation/analysis &amp; data/pilot/github-sameorgs/repos/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B71A40-EC8C-C649-92F6-E8776833EFC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="620" windowWidth="9120" windowHeight="16720" tabRatio="500"/>
+    <workbookView xWindow="28600" yWindow="2520" windowWidth="19500" windowHeight="21920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="597">
   <si>
     <t>company</t>
   </si>
@@ -1798,12 +1804,24 @@
   </si>
   <si>
     <t>qrcode.react</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>unsure</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>sex</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1889,6 +1907,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2213,16 +2239,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C343"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D343"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A306" sqref="A306:A343"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2232,8 +2258,11 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2243,8 +2272,11 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2254,8 +2286,11 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2265,8 +2300,11 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2276,8 +2314,11 @@
       <c r="C5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2287,8 +2328,11 @@
       <c r="C6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2298,8 +2342,11 @@
       <c r="C7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -2309,8 +2356,11 @@
       <c r="C8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -2320,8 +2370,11 @@
       <c r="C9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -2331,8 +2384,11 @@
       <c r="C10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -2342,8 +2398,11 @@
       <c r="C11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -2353,8 +2412,11 @@
       <c r="C12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -2364,8 +2426,11 @@
       <c r="C13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -2375,8 +2440,11 @@
       <c r="C14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -2386,8 +2454,11 @@
       <c r="C15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -2397,8 +2468,11 @@
       <c r="C16" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -2408,8 +2482,11 @@
       <c r="C17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -2419,8 +2496,11 @@
       <c r="C18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -2430,8 +2510,11 @@
       <c r="C19" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -2441,8 +2524,11 @@
       <c r="C20" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -2452,8 +2538,11 @@
       <c r="C21" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -2463,8 +2552,11 @@
       <c r="C22" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -2474,8 +2566,11 @@
       <c r="C23" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -2485,8 +2580,11 @@
       <c r="C24" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -2496,8 +2594,11 @@
       <c r="C25" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -2507,8 +2608,11 @@
       <c r="C26" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -2518,8 +2622,11 @@
       <c r="C27" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -2529,8 +2636,11 @@
       <c r="C28" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -2540,8 +2650,11 @@
       <c r="C29" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -2551,8 +2664,11 @@
       <c r="C30" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -2562,8 +2678,11 @@
       <c r="C31" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -2573,8 +2692,11 @@
       <c r="C32" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -2584,8 +2706,11 @@
       <c r="C33" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -2595,8 +2720,11 @@
       <c r="C34" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -2606,8 +2734,11 @@
       <c r="C35" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -2617,8 +2748,11 @@
       <c r="C36" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -2628,8 +2762,11 @@
       <c r="C37" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -2639,8 +2776,11 @@
       <c r="C38" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -2650,8 +2790,11 @@
       <c r="C39" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -2661,8 +2804,11 @@
       <c r="C40" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -2672,8 +2818,11 @@
       <c r="C41" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -2683,8 +2832,11 @@
       <c r="C42" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -2694,8 +2846,11 @@
       <c r="C43" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -2705,8 +2860,11 @@
       <c r="C44" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -2716,8 +2874,11 @@
       <c r="C45" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -2727,8 +2888,11 @@
       <c r="C46" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -2738,8 +2902,11 @@
       <c r="C47" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>3</v>
       </c>
@@ -2749,8 +2916,11 @@
       <c r="C48" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -2760,8 +2930,11 @@
       <c r="C49" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>3</v>
       </c>
@@ -2771,8 +2944,11 @@
       <c r="C50" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -2782,8 +2958,11 @@
       <c r="C51" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>3</v>
       </c>
@@ -2793,8 +2972,11 @@
       <c r="C52" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>94</v>
       </c>
@@ -2804,8 +2986,11 @@
       <c r="C53" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>94</v>
       </c>
@@ -2815,8 +3000,11 @@
       <c r="C54" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>94</v>
       </c>
@@ -2826,8 +3014,11 @@
       <c r="C55" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>94</v>
       </c>
@@ -2837,8 +3028,11 @@
       <c r="C56" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>94</v>
       </c>
@@ -2848,8 +3042,11 @@
       <c r="C57" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>94</v>
       </c>
@@ -2859,8 +3056,11 @@
       <c r="C58" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>94</v>
       </c>
@@ -2870,8 +3070,11 @@
       <c r="C59" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>94</v>
       </c>
@@ -2881,8 +3084,11 @@
       <c r="C60" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>94</v>
       </c>
@@ -2892,8 +3098,11 @@
       <c r="C61" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>94</v>
       </c>
@@ -2903,8 +3112,11 @@
       <c r="C62" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>94</v>
       </c>
@@ -2914,8 +3126,11 @@
       <c r="C63" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>94</v>
       </c>
@@ -2925,8 +3140,11 @@
       <c r="C64" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>94</v>
       </c>
@@ -2936,8 +3154,11 @@
       <c r="C65" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>94</v>
       </c>
@@ -2947,8 +3168,11 @@
       <c r="C66" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>94</v>
       </c>
@@ -2958,8 +3182,11 @@
       <c r="C67" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>94</v>
       </c>
@@ -2969,8 +3196,11 @@
       <c r="C68" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D68" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>94</v>
       </c>
@@ -2980,8 +3210,11 @@
       <c r="C69" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="D69" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>94</v>
       </c>
@@ -2991,8 +3224,11 @@
       <c r="C70" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="D70" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>94</v>
       </c>
@@ -3002,8 +3238,11 @@
       <c r="C71" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>94</v>
       </c>
@@ -3013,8 +3252,11 @@
       <c r="C72" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>94</v>
       </c>
@@ -3024,8 +3266,11 @@
       <c r="C73" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>94</v>
       </c>
@@ -3035,8 +3280,11 @@
       <c r="C74" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="D74" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>94</v>
       </c>
@@ -3046,8 +3294,11 @@
       <c r="C75" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="D75" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>94</v>
       </c>
@@ -3057,8 +3308,11 @@
       <c r="C76" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>94</v>
       </c>
@@ -3068,8 +3322,11 @@
       <c r="C77" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="D77" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>94</v>
       </c>
@@ -3079,8 +3336,11 @@
       <c r="C78" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="D78" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>94</v>
       </c>
@@ -3090,8 +3350,11 @@
       <c r="C79" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="D79" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>94</v>
       </c>
@@ -3101,8 +3364,11 @@
       <c r="C80" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="D80" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>94</v>
       </c>
@@ -3112,8 +3378,11 @@
       <c r="C81" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="D81" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>94</v>
       </c>
@@ -3123,8 +3392,11 @@
       <c r="C82" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="D82" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>94</v>
       </c>
@@ -3134,8 +3406,11 @@
       <c r="C83" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="D83" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>94</v>
       </c>
@@ -3145,8 +3420,11 @@
       <c r="C84" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="D84" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>94</v>
       </c>
@@ -3156,8 +3434,11 @@
       <c r="C85" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="D85" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>94</v>
       </c>
@@ -3167,8 +3448,11 @@
       <c r="C86" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="D86" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>94</v>
       </c>
@@ -3178,8 +3462,11 @@
       <c r="C87" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="D87" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -3189,8 +3476,11 @@
       <c r="C88" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="D88" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>94</v>
       </c>
@@ -3200,8 +3490,11 @@
       <c r="C89" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="D89" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>94</v>
       </c>
@@ -3211,8 +3504,11 @@
       <c r="C90" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="D90" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>94</v>
       </c>
@@ -3222,8 +3518,11 @@
       <c r="C91" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="D91" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>94</v>
       </c>
@@ -3233,8 +3532,11 @@
       <c r="C92" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="D92" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>94</v>
       </c>
@@ -3244,8 +3546,11 @@
       <c r="C93" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="D93" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>94</v>
       </c>
@@ -3255,8 +3560,11 @@
       <c r="C94" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="D94" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -3266,8 +3574,11 @@
       <c r="C95" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="D95" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -3277,8 +3588,11 @@
       <c r="C96" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>94</v>
       </c>
@@ -3288,8 +3602,11 @@
       <c r="C97" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="D97" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>94</v>
       </c>
@@ -3299,8 +3616,11 @@
       <c r="C98" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="D98" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>94</v>
       </c>
@@ -3310,8 +3630,11 @@
       <c r="C99" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="D99" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>94</v>
       </c>
@@ -3321,8 +3644,11 @@
       <c r="C100" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>94</v>
       </c>
@@ -3332,8 +3658,11 @@
       <c r="C101" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="D101" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>94</v>
       </c>
@@ -3343,8 +3672,11 @@
       <c r="C102" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>94</v>
       </c>
@@ -3354,8 +3686,11 @@
       <c r="C103" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>94</v>
       </c>
@@ -3365,8 +3700,11 @@
       <c r="C104" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="D104" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>94</v>
       </c>
@@ -3376,8 +3714,11 @@
       <c r="C105" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="D105" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>94</v>
       </c>
@@ -3387,8 +3728,11 @@
       <c r="C106" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="D106" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>94</v>
       </c>
@@ -3398,8 +3742,11 @@
       <c r="C107" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="D107" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>94</v>
       </c>
@@ -3409,8 +3756,11 @@
       <c r="C108" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="D108" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>94</v>
       </c>
@@ -3420,8 +3770,11 @@
       <c r="C109" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="D109" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>94</v>
       </c>
@@ -3431,8 +3784,11 @@
       <c r="C110" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="111" spans="1:3">
+      <c r="D110" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>94</v>
       </c>
@@ -3442,8 +3798,11 @@
       <c r="C111" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="112" spans="1:3">
+      <c r="D111" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>94</v>
       </c>
@@ -3453,8 +3812,11 @@
       <c r="C112" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="113" spans="1:3">
+      <c r="D112" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>94</v>
       </c>
@@ -3464,8 +3826,11 @@
       <c r="C113" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="114" spans="1:3">
+      <c r="D113" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>94</v>
       </c>
@@ -3475,8 +3840,11 @@
       <c r="C114" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="115" spans="1:3">
+      <c r="D114" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>94</v>
       </c>
@@ -3486,8 +3854,11 @@
       <c r="C115" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="116" spans="1:3">
+      <c r="D115" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>94</v>
       </c>
@@ -3497,8 +3868,11 @@
       <c r="C116" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="117" spans="1:3">
+      <c r="D116" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>94</v>
       </c>
@@ -3508,8 +3882,11 @@
       <c r="C117" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="118" spans="1:3">
+      <c r="D117" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>94</v>
       </c>
@@ -3519,8 +3896,11 @@
       <c r="C118" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="119" spans="1:3">
+      <c r="D118" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>94</v>
       </c>
@@ -3530,8 +3910,11 @@
       <c r="C119" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="120" spans="1:3">
+      <c r="D119" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>94</v>
       </c>
@@ -3541,8 +3924,11 @@
       <c r="C120" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="D120" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>94</v>
       </c>
@@ -3552,8 +3938,11 @@
       <c r="C121" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="122" spans="1:3">
+      <c r="D121" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>94</v>
       </c>
@@ -3563,8 +3952,11 @@
       <c r="C122" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="123" spans="1:3">
+      <c r="D122" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>94</v>
       </c>
@@ -3574,8 +3966,11 @@
       <c r="C123" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="124" spans="1:3">
+      <c r="D123" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>94</v>
       </c>
@@ -3585,8 +3980,11 @@
       <c r="C124" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="125" spans="1:3">
+      <c r="D124" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>94</v>
       </c>
@@ -3596,8 +3994,11 @@
       <c r="C125" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="126" spans="1:3">
+      <c r="D125" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>94</v>
       </c>
@@ -3607,8 +4008,11 @@
       <c r="C126" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="127" spans="1:3">
+      <c r="D126" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>94</v>
       </c>
@@ -3618,8 +4022,11 @@
       <c r="C127" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="128" spans="1:3">
+      <c r="D127" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>94</v>
       </c>
@@ -3629,8 +4036,11 @@
       <c r="C128" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="129" spans="1:3">
+      <c r="D128" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>94</v>
       </c>
@@ -3640,8 +4050,11 @@
       <c r="C129" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="130" spans="1:3">
+      <c r="D129" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>94</v>
       </c>
@@ -3651,8 +4064,11 @@
       <c r="C130" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="131" spans="1:3">
+      <c r="D130" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>94</v>
       </c>
@@ -3662,8 +4078,11 @@
       <c r="C131" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="132" spans="1:3">
+      <c r="D131" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>94</v>
       </c>
@@ -3673,8 +4092,11 @@
       <c r="C132" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="133" spans="1:3">
+      <c r="D132" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>94</v>
       </c>
@@ -3684,8 +4106,11 @@
       <c r="C133" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="134" spans="1:3">
+      <c r="D133" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>94</v>
       </c>
@@ -3695,8 +4120,11 @@
       <c r="C134" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="135" spans="1:3">
+      <c r="D134" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>94</v>
       </c>
@@ -3706,8 +4134,11 @@
       <c r="C135" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="136" spans="1:3">
+      <c r="D135" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>94</v>
       </c>
@@ -3717,8 +4148,11 @@
       <c r="C136" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="137" spans="1:3">
+      <c r="D136" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>94</v>
       </c>
@@ -3728,8 +4162,11 @@
       <c r="C137" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="138" spans="1:3">
+      <c r="D137" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>94</v>
       </c>
@@ -3739,8 +4176,11 @@
       <c r="C138" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="139" spans="1:3">
+      <c r="D138" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>94</v>
       </c>
@@ -3750,8 +4190,11 @@
       <c r="C139" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="140" spans="1:3">
+      <c r="D139" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>94</v>
       </c>
@@ -3761,8 +4204,11 @@
       <c r="C140" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="141" spans="1:3">
+      <c r="D140" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>94</v>
       </c>
@@ -3772,8 +4218,11 @@
       <c r="C141" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="142" spans="1:3">
+      <c r="D141" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>94</v>
       </c>
@@ -3783,8 +4232,11 @@
       <c r="C142" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="143" spans="1:3">
+      <c r="D142" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>94</v>
       </c>
@@ -3794,8 +4246,11 @@
       <c r="C143" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="144" spans="1:3">
+      <c r="D143" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>94</v>
       </c>
@@ -3805,8 +4260,11 @@
       <c r="C144" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="145" spans="1:3">
+      <c r="D144" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>94</v>
       </c>
@@ -3816,8 +4274,11 @@
       <c r="C145" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="146" spans="1:3">
+      <c r="D145" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>94</v>
       </c>
@@ -3827,8 +4288,11 @@
       <c r="C146" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="147" spans="1:3">
+      <c r="D146" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>94</v>
       </c>
@@ -3838,8 +4302,11 @@
       <c r="C147" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="148" spans="1:3">
+      <c r="D147" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>94</v>
       </c>
@@ -3849,8 +4316,11 @@
       <c r="C148" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="149" spans="1:3">
+      <c r="D148" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>94</v>
       </c>
@@ -3860,8 +4330,11 @@
       <c r="C149" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="150" spans="1:3">
+      <c r="D149" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>94</v>
       </c>
@@ -3871,8 +4344,11 @@
       <c r="C150" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="151" spans="1:3">
+      <c r="D150" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>94</v>
       </c>
@@ -3882,8 +4358,11 @@
       <c r="C151" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="152" spans="1:3">
+      <c r="D151" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>94</v>
       </c>
@@ -3893,8 +4372,11 @@
       <c r="C152" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="153" spans="1:3">
+      <c r="D152" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>94</v>
       </c>
@@ -3904,8 +4386,11 @@
       <c r="C153" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="154" spans="1:3">
+      <c r="D153" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>267</v>
       </c>
@@ -3915,8 +4400,11 @@
       <c r="C154" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="155" spans="1:3">
+      <c r="D154" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>267</v>
       </c>
@@ -3926,8 +4414,11 @@
       <c r="C155" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="156" spans="1:3">
+      <c r="D155" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>267</v>
       </c>
@@ -3937,8 +4428,11 @@
       <c r="C156" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="157" spans="1:3">
+      <c r="D156" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>267</v>
       </c>
@@ -3948,8 +4442,11 @@
       <c r="C157" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="158" spans="1:3">
+      <c r="D157" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>267</v>
       </c>
@@ -3959,8 +4456,11 @@
       <c r="C158" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="159" spans="1:3">
+      <c r="D158" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>267</v>
       </c>
@@ -3970,8 +4470,11 @@
       <c r="C159" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="160" spans="1:3">
+      <c r="D159" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>267</v>
       </c>
@@ -3981,8 +4484,11 @@
       <c r="C160" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="161" spans="1:3">
+      <c r="D160" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>267</v>
       </c>
@@ -3992,8 +4498,11 @@
       <c r="C161" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="162" spans="1:3">
+      <c r="D161" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>267</v>
       </c>
@@ -4003,8 +4512,11 @@
       <c r="C162" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="163" spans="1:3">
+      <c r="D162" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>267</v>
       </c>
@@ -4014,8 +4526,11 @@
       <c r="C163" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="164" spans="1:3">
+      <c r="D163" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>267</v>
       </c>
@@ -4025,8 +4540,11 @@
       <c r="C164" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="165" spans="1:3">
+      <c r="D164" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>267</v>
       </c>
@@ -4036,8 +4554,11 @@
       <c r="C165" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="166" spans="1:3">
+      <c r="D165" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>267</v>
       </c>
@@ -4047,8 +4568,11 @@
       <c r="C166" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="167" spans="1:3">
+      <c r="D166" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>267</v>
       </c>
@@ -4058,8 +4582,11 @@
       <c r="C167" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="168" spans="1:3">
+      <c r="D167" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>267</v>
       </c>
@@ -4069,8 +4596,11 @@
       <c r="C168" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="169" spans="1:3">
+      <c r="D168" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>267</v>
       </c>
@@ -4080,8 +4610,11 @@
       <c r="C169" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="170" spans="1:3">
+      <c r="D169" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>267</v>
       </c>
@@ -4091,8 +4624,11 @@
       <c r="C170" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="171" spans="1:3">
+      <c r="D170" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>267</v>
       </c>
@@ -4102,8 +4638,11 @@
       <c r="C171" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="172" spans="1:3">
+      <c r="D171" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>267</v>
       </c>
@@ -4113,8 +4652,11 @@
       <c r="C172" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="173" spans="1:3">
+      <c r="D172" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>267</v>
       </c>
@@ -4124,8 +4666,11 @@
       <c r="C173" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="174" spans="1:3">
+      <c r="D173" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>267</v>
       </c>
@@ -4135,8 +4680,11 @@
       <c r="C174" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="175" spans="1:3">
+      <c r="D174" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>267</v>
       </c>
@@ -4146,8 +4694,11 @@
       <c r="C175" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="176" spans="1:3">
+      <c r="D175" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>267</v>
       </c>
@@ -4157,8 +4708,11 @@
       <c r="C176" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="177" spans="1:3">
+      <c r="D176" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>267</v>
       </c>
@@ -4168,8 +4722,11 @@
       <c r="C177" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="178" spans="1:3">
+      <c r="D177" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>267</v>
       </c>
@@ -4179,8 +4736,11 @@
       <c r="C178" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="179" spans="1:3">
+      <c r="D178" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>267</v>
       </c>
@@ -4190,8 +4750,11 @@
       <c r="C179" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="180" spans="1:3">
+      <c r="D179" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>267</v>
       </c>
@@ -4201,8 +4764,11 @@
       <c r="C180" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="181" spans="1:3">
+      <c r="D180" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>267</v>
       </c>
@@ -4212,8 +4778,11 @@
       <c r="C181" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="182" spans="1:3">
+      <c r="D181" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>267</v>
       </c>
@@ -4223,8 +4792,11 @@
       <c r="C182" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="183" spans="1:3">
+      <c r="D182" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>267</v>
       </c>
@@ -4234,8 +4806,11 @@
       <c r="C183" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="184" spans="1:3">
+      <c r="D183" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>267</v>
       </c>
@@ -4245,8 +4820,11 @@
       <c r="C184" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="185" spans="1:3">
+      <c r="D184" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>267</v>
       </c>
@@ -4256,8 +4834,11 @@
       <c r="C185" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="186" spans="1:3">
+      <c r="D185" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>267</v>
       </c>
@@ -4267,8 +4848,11 @@
       <c r="C186" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="187" spans="1:3">
+      <c r="D186" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>267</v>
       </c>
@@ -4278,8 +4862,11 @@
       <c r="C187" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="188" spans="1:3">
+      <c r="D187" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>267</v>
       </c>
@@ -4289,8 +4876,11 @@
       <c r="C188" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="189" spans="1:3">
+      <c r="D188" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>267</v>
       </c>
@@ -4300,8 +4890,11 @@
       <c r="C189" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="190" spans="1:3">
+      <c r="D189" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>267</v>
       </c>
@@ -4311,8 +4904,11 @@
       <c r="C190" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="191" spans="1:3">
+      <c r="D190" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>267</v>
       </c>
@@ -4322,8 +4918,11 @@
       <c r="C191" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="192" spans="1:3">
+      <c r="D191" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>267</v>
       </c>
@@ -4333,8 +4932,11 @@
       <c r="C192" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="193" spans="1:3">
+      <c r="D192" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>267</v>
       </c>
@@ -4344,8 +4946,11 @@
       <c r="C193" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="194" spans="1:3">
+      <c r="D193" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>267</v>
       </c>
@@ -4355,8 +4960,11 @@
       <c r="C194" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="195" spans="1:3">
+      <c r="D194" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>267</v>
       </c>
@@ -4366,8 +4974,11 @@
       <c r="C195" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="196" spans="1:3">
+      <c r="D195" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>267</v>
       </c>
@@ -4377,8 +4988,11 @@
       <c r="C196" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="197" spans="1:3">
+      <c r="D196" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>267</v>
       </c>
@@ -4388,8 +5002,11 @@
       <c r="C197" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="198" spans="1:3">
+      <c r="D197" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>267</v>
       </c>
@@ -4399,8 +5016,11 @@
       <c r="C198" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="199" spans="1:3">
+      <c r="D198" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>267</v>
       </c>
@@ -4410,8 +5030,11 @@
       <c r="C199" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="200" spans="1:3">
+      <c r="D199" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>267</v>
       </c>
@@ -4421,8 +5044,11 @@
       <c r="C200" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="201" spans="1:3">
+      <c r="D200" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>267</v>
       </c>
@@ -4432,8 +5058,11 @@
       <c r="C201" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="202" spans="1:3">
+      <c r="D201" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>267</v>
       </c>
@@ -4443,8 +5072,11 @@
       <c r="C202" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="203" spans="1:3">
+      <c r="D202" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>267</v>
       </c>
@@ -4454,8 +5086,11 @@
       <c r="C203" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="204" spans="1:3">
+      <c r="D203" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>267</v>
       </c>
@@ -4465,8 +5100,11 @@
       <c r="C204" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="205" spans="1:3">
+      <c r="D204" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>267</v>
       </c>
@@ -4476,8 +5114,11 @@
       <c r="C205" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="206" spans="1:3">
+      <c r="D205" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>267</v>
       </c>
@@ -4487,8 +5128,11 @@
       <c r="C206" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="207" spans="1:3">
+      <c r="D206" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>267</v>
       </c>
@@ -4498,8 +5142,11 @@
       <c r="C207" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="208" spans="1:3">
+      <c r="D207" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>267</v>
       </c>
@@ -4509,8 +5156,11 @@
       <c r="C208" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="209" spans="1:3">
+      <c r="D208" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>267</v>
       </c>
@@ -4520,8 +5170,11 @@
       <c r="C209" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="210" spans="1:3">
+      <c r="D209" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>267</v>
       </c>
@@ -4531,8 +5184,11 @@
       <c r="C210" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="211" spans="1:3">
+      <c r="D210" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>267</v>
       </c>
@@ -4542,8 +5198,11 @@
       <c r="C211" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="212" spans="1:3">
+      <c r="D211" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>267</v>
       </c>
@@ -4553,8 +5212,11 @@
       <c r="C212" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="213" spans="1:3">
+      <c r="D212" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>267</v>
       </c>
@@ -4564,8 +5226,11 @@
       <c r="C213" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="214" spans="1:3">
+      <c r="D213" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>267</v>
       </c>
@@ -4575,8 +5240,11 @@
       <c r="C214" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="215" spans="1:3">
+      <c r="D214" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>267</v>
       </c>
@@ -4586,8 +5254,11 @@
       <c r="C215" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="216" spans="1:3">
+      <c r="D215" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>267</v>
       </c>
@@ -4597,8 +5268,11 @@
       <c r="C216" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="217" spans="1:3">
+      <c r="D216" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>267</v>
       </c>
@@ -4608,8 +5282,11 @@
       <c r="C217" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="218" spans="1:3">
+      <c r="D217" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>267</v>
       </c>
@@ -4619,8 +5296,11 @@
       <c r="C218" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="219" spans="1:3">
+      <c r="D218" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>267</v>
       </c>
@@ -4630,8 +5310,11 @@
       <c r="C219" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="220" spans="1:3">
+      <c r="D219" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>267</v>
       </c>
@@ -4641,8 +5324,11 @@
       <c r="C220" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="221" spans="1:3">
+      <c r="D220" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>267</v>
       </c>
@@ -4652,8 +5338,11 @@
       <c r="C221" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="222" spans="1:3">
+      <c r="D221" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>267</v>
       </c>
@@ -4663,8 +5352,11 @@
       <c r="C222" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="223" spans="1:3">
+      <c r="D222" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>267</v>
       </c>
@@ -4674,8 +5366,11 @@
       <c r="C223" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="224" spans="1:3">
+      <c r="D223" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>267</v>
       </c>
@@ -4685,8 +5380,11 @@
       <c r="C224" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="225" spans="1:3">
+      <c r="D224" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>267</v>
       </c>
@@ -4696,8 +5394,11 @@
       <c r="C225" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="226" spans="1:3">
+      <c r="D225" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>267</v>
       </c>
@@ -4707,8 +5408,11 @@
       <c r="C226" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="227" spans="1:3">
+      <c r="D226" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>267</v>
       </c>
@@ -4718,8 +5422,11 @@
       <c r="C227" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="228" spans="1:3">
+      <c r="D227" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>267</v>
       </c>
@@ -4729,8 +5436,11 @@
       <c r="C228" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="229" spans="1:3">
+      <c r="D228" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>267</v>
       </c>
@@ -4740,8 +5450,11 @@
       <c r="C229" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="230" spans="1:3">
+      <c r="D229" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>267</v>
       </c>
@@ -4751,8 +5464,11 @@
       <c r="C230" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="231" spans="1:3">
+      <c r="D230" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>267</v>
       </c>
@@ -4762,8 +5478,11 @@
       <c r="C231" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="232" spans="1:3">
+      <c r="D231" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>267</v>
       </c>
@@ -4773,8 +5492,11 @@
       <c r="C232" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="233" spans="1:3">
+      <c r="D232" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>267</v>
       </c>
@@ -4784,8 +5506,11 @@
       <c r="C233" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="234" spans="1:3">
+      <c r="D233" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>267</v>
       </c>
@@ -4795,8 +5520,11 @@
       <c r="C234" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="235" spans="1:3">
+      <c r="D234" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>267</v>
       </c>
@@ -4806,8 +5534,11 @@
       <c r="C235" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="236" spans="1:3">
+      <c r="D235" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>267</v>
       </c>
@@ -4817,8 +5548,11 @@
       <c r="C236" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="237" spans="1:3">
+      <c r="D236" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>267</v>
       </c>
@@ -4828,8 +5562,11 @@
       <c r="C237" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="238" spans="1:3">
+      <c r="D237" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>267</v>
       </c>
@@ -4839,8 +5576,11 @@
       <c r="C238" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="239" spans="1:3">
+      <c r="D238" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>267</v>
       </c>
@@ -4850,8 +5590,11 @@
       <c r="C239" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="240" spans="1:3">
+      <c r="D239" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>267</v>
       </c>
@@ -4861,8 +5604,11 @@
       <c r="C240" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="241" spans="1:3">
+      <c r="D240" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>267</v>
       </c>
@@ -4872,8 +5618,11 @@
       <c r="C241" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="242" spans="1:3">
+      <c r="D241" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>267</v>
       </c>
@@ -4883,8 +5632,11 @@
       <c r="C242" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="243" spans="1:3">
+      <c r="D242" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>267</v>
       </c>
@@ -4894,8 +5646,11 @@
       <c r="C243" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="244" spans="1:3">
+      <c r="D243" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>267</v>
       </c>
@@ -4905,8 +5660,11 @@
       <c r="C244" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="245" spans="1:3">
+      <c r="D244" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>267</v>
       </c>
@@ -4916,8 +5674,11 @@
       <c r="C245" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="246" spans="1:3">
+      <c r="D245" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>267</v>
       </c>
@@ -4927,8 +5688,11 @@
       <c r="C246" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="247" spans="1:3">
+      <c r="D246" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>267</v>
       </c>
@@ -4938,8 +5702,11 @@
       <c r="C247" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="248" spans="1:3">
+      <c r="D247" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>267</v>
       </c>
@@ -4949,8 +5716,11 @@
       <c r="C248" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="249" spans="1:3">
+      <c r="D248" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>267</v>
       </c>
@@ -4960,8 +5730,11 @@
       <c r="C249" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="250" spans="1:3">
+      <c r="D249" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>267</v>
       </c>
@@ -4971,8 +5744,11 @@
       <c r="C250" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="251" spans="1:3">
+      <c r="D250" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>267</v>
       </c>
@@ -4982,8 +5758,11 @@
       <c r="C251" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="252" spans="1:3">
+      <c r="D251" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>267</v>
       </c>
@@ -4993,8 +5772,11 @@
       <c r="C252" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="253" spans="1:3">
+      <c r="D252" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>267</v>
       </c>
@@ -5004,8 +5786,11 @@
       <c r="C253" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="254" spans="1:3">
+      <c r="D253" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>267</v>
       </c>
@@ -5015,8 +5800,11 @@
       <c r="C254" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="255" spans="1:3">
+      <c r="D254" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>267</v>
       </c>
@@ -5026,8 +5814,11 @@
       <c r="C255" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="256" spans="1:3">
+      <c r="D255" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>267</v>
       </c>
@@ -5037,8 +5828,11 @@
       <c r="C256" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="257" spans="1:3">
+      <c r="D256" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>267</v>
       </c>
@@ -5048,8 +5842,11 @@
       <c r="C257" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="258" spans="1:3">
+      <c r="D257" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>267</v>
       </c>
@@ -5059,8 +5856,11 @@
       <c r="C258" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="259" spans="1:3">
+      <c r="D258" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>267</v>
       </c>
@@ -5070,8 +5870,11 @@
       <c r="C259" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="260" spans="1:3">
+      <c r="D259" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>267</v>
       </c>
@@ -5081,8 +5884,11 @@
       <c r="C260" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="261" spans="1:3">
+      <c r="D260" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>267</v>
       </c>
@@ -5092,8 +5898,11 @@
       <c r="C261" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="262" spans="1:3">
+      <c r="D261" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>267</v>
       </c>
@@ -5103,8 +5912,11 @@
       <c r="C262" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="263" spans="1:3">
+      <c r="D262" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>267</v>
       </c>
@@ -5114,8 +5926,11 @@
       <c r="C263" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="264" spans="1:3">
+      <c r="D263" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>267</v>
       </c>
@@ -5125,8 +5940,11 @@
       <c r="C264" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="265" spans="1:3">
+      <c r="D264" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>267</v>
       </c>
@@ -5136,8 +5954,11 @@
       <c r="C265" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="266" spans="1:3">
+      <c r="D265" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>267</v>
       </c>
@@ -5147,8 +5968,11 @@
       <c r="C266" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="267" spans="1:3">
+      <c r="D266" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>267</v>
       </c>
@@ -5158,8 +5982,11 @@
       <c r="C267" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="268" spans="1:3">
+      <c r="D267" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -5169,8 +5996,11 @@
       <c r="C268" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="269" spans="1:3">
+      <c r="D268" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>267</v>
       </c>
@@ -5180,8 +6010,11 @@
       <c r="C269" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="270" spans="1:3">
+      <c r="D269" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>267</v>
       </c>
@@ -5191,8 +6024,11 @@
       <c r="C270" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="271" spans="1:3">
+      <c r="D270" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>267</v>
       </c>
@@ -5202,8 +6038,11 @@
       <c r="C271" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="272" spans="1:3">
+      <c r="D271" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>267</v>
       </c>
@@ -5213,8 +6052,11 @@
       <c r="C272" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="273" spans="1:3">
+      <c r="D272" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>267</v>
       </c>
@@ -5224,8 +6066,11 @@
       <c r="C273" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="274" spans="1:3">
+      <c r="D273" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>267</v>
       </c>
@@ -5235,8 +6080,11 @@
       <c r="C274" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="275" spans="1:3">
+      <c r="D274" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>267</v>
       </c>
@@ -5246,8 +6094,11 @@
       <c r="C275" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="276" spans="1:3">
+      <c r="D275" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>267</v>
       </c>
@@ -5257,8 +6108,11 @@
       <c r="C276" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="277" spans="1:3">
+      <c r="D276" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>267</v>
       </c>
@@ -5268,8 +6122,11 @@
       <c r="C277" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="278" spans="1:3">
+      <c r="D277" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>267</v>
       </c>
@@ -5279,8 +6136,11 @@
       <c r="C278" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="279" spans="1:3">
+      <c r="D278" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>267</v>
       </c>
@@ -5290,8 +6150,11 @@
       <c r="C279" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="280" spans="1:3">
+      <c r="D279" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>267</v>
       </c>
@@ -5301,8 +6164,11 @@
       <c r="C280" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="281" spans="1:3">
+      <c r="D280" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>267</v>
       </c>
@@ -5312,8 +6178,11 @@
       <c r="C281" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="282" spans="1:3">
+      <c r="D281" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>267</v>
       </c>
@@ -5323,8 +6192,11 @@
       <c r="C282" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="283" spans="1:3">
+      <c r="D282" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>267</v>
       </c>
@@ -5334,8 +6206,11 @@
       <c r="C283" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="284" spans="1:3">
+      <c r="D283" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>267</v>
       </c>
@@ -5345,8 +6220,11 @@
       <c r="C284" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="285" spans="1:3">
+      <c r="D284" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>267</v>
       </c>
@@ -5356,8 +6234,11 @@
       <c r="C285" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="286" spans="1:3">
+      <c r="D285" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>267</v>
       </c>
@@ -5367,8 +6248,11 @@
       <c r="C286" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="287" spans="1:3">
+      <c r="D286" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>267</v>
       </c>
@@ -5378,8 +6262,11 @@
       <c r="C287" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="288" spans="1:3">
+      <c r="D287" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>267</v>
       </c>
@@ -5389,8 +6276,11 @@
       <c r="C288" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="289" spans="1:3">
+      <c r="D288" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>267</v>
       </c>
@@ -5400,8 +6290,11 @@
       <c r="C289" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="290" spans="1:3">
+      <c r="D289" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>267</v>
       </c>
@@ -5411,8 +6304,11 @@
       <c r="C290" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="291" spans="1:3">
+      <c r="D290" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>267</v>
       </c>
@@ -5422,8 +6318,11 @@
       <c r="C291" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="292" spans="1:3">
+      <c r="D291" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>267</v>
       </c>
@@ -5433,8 +6332,11 @@
       <c r="C292" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="293" spans="1:3">
+      <c r="D292" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>267</v>
       </c>
@@ -5444,8 +6346,11 @@
       <c r="C293" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="294" spans="1:3">
+      <c r="D293" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>267</v>
       </c>
@@ -5455,8 +6360,11 @@
       <c r="C294" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="295" spans="1:3">
+      <c r="D294" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>267</v>
       </c>
@@ -5466,8 +6374,11 @@
       <c r="C295" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="296" spans="1:3">
+      <c r="D295" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>267</v>
       </c>
@@ -5477,8 +6388,11 @@
       <c r="C296" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="297" spans="1:3">
+      <c r="D296" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>267</v>
       </c>
@@ -5488,8 +6402,11 @@
       <c r="C297" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="298" spans="1:3">
+      <c r="D297" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>267</v>
       </c>
@@ -5499,8 +6416,11 @@
       <c r="C298" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="299" spans="1:3">
+      <c r="D298" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>267</v>
       </c>
@@ -5510,8 +6430,11 @@
       <c r="C299" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="300" spans="1:3">
+      <c r="D299" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>267</v>
       </c>
@@ -5521,8 +6444,11 @@
       <c r="C300" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="301" spans="1:3">
+      <c r="D300" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>267</v>
       </c>
@@ -5532,8 +6458,11 @@
       <c r="C301" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="302" spans="1:3">
+      <c r="D301" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>267</v>
       </c>
@@ -5543,8 +6472,11 @@
       <c r="C302" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="303" spans="1:3">
+      <c r="D302" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>522</v>
       </c>
@@ -5554,8 +6486,11 @@
       <c r="C303" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="304" spans="1:3">
+      <c r="D303" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>522</v>
       </c>
@@ -5565,8 +6500,11 @@
       <c r="C304" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="305" spans="1:3">
+      <c r="D304" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>522</v>
       </c>
@@ -5576,8 +6514,11 @@
       <c r="C305" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="306" spans="1:3">
+      <c r="D305" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>529</v>
       </c>
@@ -5587,8 +6528,11 @@
       <c r="C306" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="307" spans="1:3">
+      <c r="D306" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>529</v>
       </c>
@@ -5598,8 +6542,11 @@
       <c r="C307" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="308" spans="1:3">
+      <c r="D307" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>529</v>
       </c>
@@ -5609,8 +6556,11 @@
       <c r="C308" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="309" spans="1:3">
+      <c r="D308" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>529</v>
       </c>
@@ -5620,8 +6570,11 @@
       <c r="C309" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="310" spans="1:3">
+      <c r="D309" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>529</v>
       </c>
@@ -5631,8 +6584,11 @@
       <c r="C310" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="311" spans="1:3">
+      <c r="D310" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>529</v>
       </c>
@@ -5642,8 +6598,11 @@
       <c r="C311" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="312" spans="1:3">
+      <c r="D311" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>529</v>
       </c>
@@ -5653,8 +6612,11 @@
       <c r="C312" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="313" spans="1:3">
+      <c r="D312" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>529</v>
       </c>
@@ -5664,8 +6626,11 @@
       <c r="C313" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="314" spans="1:3">
+      <c r="D313" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>529</v>
       </c>
@@ -5675,8 +6640,11 @@
       <c r="C314" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="315" spans="1:3">
+      <c r="D314" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>529</v>
       </c>
@@ -5686,8 +6654,11 @@
       <c r="C315" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="316" spans="1:3">
+      <c r="D315" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>529</v>
       </c>
@@ -5697,8 +6668,11 @@
       <c r="C316" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="317" spans="1:3">
+      <c r="D316" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>529</v>
       </c>
@@ -5708,8 +6682,11 @@
       <c r="C317" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="318" spans="1:3">
+      <c r="D317" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>529</v>
       </c>
@@ -5719,8 +6696,11 @@
       <c r="C318" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="319" spans="1:3">
+      <c r="D318" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>529</v>
       </c>
@@ -5730,8 +6710,11 @@
       <c r="C319" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="320" spans="1:3">
+      <c r="D319" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>529</v>
       </c>
@@ -5741,8 +6724,11 @@
       <c r="C320" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="321" spans="1:3">
+      <c r="D320" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>529</v>
       </c>
@@ -5752,8 +6738,11 @@
       <c r="C321" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="322" spans="1:3">
+      <c r="D321" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>529</v>
       </c>
@@ -5763,8 +6752,11 @@
       <c r="C322" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="323" spans="1:3">
+      <c r="D322" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>529</v>
       </c>
@@ -5774,8 +6766,11 @@
       <c r="C323" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="324" spans="1:3">
+      <c r="D323" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>529</v>
       </c>
@@ -5785,8 +6780,11 @@
       <c r="C324" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="325" spans="1:3">
+      <c r="D324" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>529</v>
       </c>
@@ -5796,8 +6794,11 @@
       <c r="C325" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="326" spans="1:3">
+      <c r="D325" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>529</v>
       </c>
@@ -5807,8 +6808,11 @@
       <c r="C326" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="327" spans="1:3">
+      <c r="D326" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>529</v>
       </c>
@@ -5818,8 +6822,11 @@
       <c r="C327" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="328" spans="1:3">
+      <c r="D327" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>529</v>
       </c>
@@ -5829,8 +6836,11 @@
       <c r="C328" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="329" spans="1:3">
+      <c r="D328" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>529</v>
       </c>
@@ -5840,8 +6850,11 @@
       <c r="C329" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="330" spans="1:3">
+      <c r="D329" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>529</v>
       </c>
@@ -5851,8 +6864,11 @@
       <c r="C330" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="331" spans="1:3">
+      <c r="D330" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>529</v>
       </c>
@@ -5862,8 +6878,11 @@
       <c r="C331" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="332" spans="1:3">
+      <c r="D331" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>529</v>
       </c>
@@ -5873,8 +6892,11 @@
       <c r="C332" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="333" spans="1:3">
+      <c r="D332" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>529</v>
       </c>
@@ -5884,8 +6906,11 @@
       <c r="C333" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="334" spans="1:3">
+      <c r="D333" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>529</v>
       </c>
@@ -5895,8 +6920,11 @@
       <c r="C334" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="335" spans="1:3">
+      <c r="D334" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>529</v>
       </c>
@@ -5906,8 +6934,11 @@
       <c r="C335" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="336" spans="1:3">
+      <c r="D335" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>529</v>
       </c>
@@ -5917,8 +6948,11 @@
       <c r="C336" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="337" spans="1:3">
+      <c r="D336" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>529</v>
       </c>
@@ -5928,8 +6962,11 @@
       <c r="C337" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="338" spans="1:3">
+      <c r="D337" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>529</v>
       </c>
@@ -5939,8 +6976,11 @@
       <c r="C338" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="339" spans="1:3">
+      <c r="D338" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>529</v>
       </c>
@@ -5950,8 +6990,11 @@
       <c r="C339" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="340" spans="1:3">
+      <c r="D339" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>529</v>
       </c>
@@ -5961,8 +7004,11 @@
       <c r="C340" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="341" spans="1:3">
+      <c r="D340" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>529</v>
       </c>
@@ -5972,8 +7018,11 @@
       <c r="C341" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="342" spans="1:3">
+      <c r="D341" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>529</v>
       </c>
@@ -5983,8 +7032,11 @@
       <c r="C342" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="343" spans="1:3">
+      <c r="D342" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>529</v>
       </c>
@@ -5993,6 +7045,9 @@
       </c>
       <c r="C343" t="s">
         <v>592</v>
+      </c>
+      <c r="D343" t="s">
+        <v>593</v>
       </c>
     </row>
   </sheetData>
